--- a/server/docs/HISOBOT.xlsx
+++ b/server/docs/HISOBOT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>Mahsulot Nomi</t>
   </si>
@@ -38,6 +38,255 @@
   </si>
   <si>
     <t>1 m Uchun Narx</t>
+  </si>
+  <si>
+    <t>Planka</t>
+  </si>
+  <si>
+    <t>20/40</t>
+  </si>
+  <si>
+    <t>Rossiya</t>
+  </si>
+  <si>
+    <t>Yangi</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>2ta</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>13000so'm</t>
+  </si>
+  <si>
+    <t>Truba</t>
+  </si>
+  <si>
+    <t>40/40</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>8.65m</t>
+  </si>
+  <si>
+    <t>17.3m</t>
+  </si>
+  <si>
+    <t>12555so'm</t>
+  </si>
+  <si>
+    <t>Shvellir</t>
+  </si>
+  <si>
+    <t>20/20</t>
+  </si>
+  <si>
+    <t>O'zbekiston</t>
+  </si>
+  <si>
+    <t>6.78m</t>
+  </si>
+  <si>
+    <t>4ta</t>
+  </si>
+  <si>
+    <t>27.12m</t>
+  </si>
+  <si>
+    <t>23000so'm</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>20mm 20mm</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>3ta</t>
+  </si>
+  <si>
+    <t>17300so'm</t>
+  </si>
+  <si>
+    <t>Armatura</t>
+  </si>
+  <si>
+    <t>olcham</t>
+  </si>
+  <si>
+    <t>40-10</t>
+  </si>
+  <si>
+    <t>14mm</t>
+  </si>
+  <si>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>1ta</t>
+  </si>
+  <si>
+    <t>19800so'm</t>
+  </si>
+  <si>
+    <t>Dvuxtavr</t>
+  </si>
+  <si>
+    <t>Latviya</t>
+  </si>
+  <si>
+    <t>O'rtasi: 14mm Chet:15mm</t>
+  </si>
+  <si>
+    <t>8.34m</t>
+  </si>
+  <si>
+    <t>25.02m</t>
+  </si>
+  <si>
+    <t>13500so'm</t>
+  </si>
+  <si>
+    <t>Kvadrat prut</t>
+  </si>
+  <si>
+    <t>30/30</t>
+  </si>
+  <si>
+    <t>20mm 10mm</t>
+  </si>
+  <si>
+    <t>24000so'm</t>
+  </si>
+  <si>
+    <t>Ugalok</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Eski</t>
+  </si>
+  <si>
+    <t>23m</t>
+  </si>
+  <si>
+    <t>69m</t>
+  </si>
+  <si>
+    <t>12220so'm</t>
+  </si>
+  <si>
+    <t>Prut</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>36m</t>
+  </si>
+  <si>
+    <t>25000so'm</t>
+  </si>
+  <si>
+    <t>olchamlari</t>
+  </si>
+  <si>
+    <t>4.67m</t>
+  </si>
+  <si>
+    <t>18.68m</t>
+  </si>
+  <si>
+    <t>23333so'm</t>
+  </si>
+  <si>
+    <t>Palasa</t>
+  </si>
+  <si>
+    <t>50/50</t>
+  </si>
+  <si>
+    <t>yangi</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>8ta</t>
+  </si>
+  <si>
+    <t>160m</t>
+  </si>
+  <si>
+    <t>20-0</t>
+  </si>
+  <si>
+    <t>SHI-1</t>
+  </si>
+  <si>
+    <t>40mm 50mm</t>
+  </si>
+  <si>
+    <t>3.5m</t>
+  </si>
+  <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>1.34m</t>
+  </si>
+  <si>
+    <t>14500so'm</t>
+  </si>
+  <si>
+    <t>qwe=qwe</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>O'rtasi: 123mm Chet:123mm</t>
+  </si>
+  <si>
+    <t>123m</t>
+  </si>
+  <si>
+    <t>10ta</t>
+  </si>
+  <si>
+    <t>1230m</t>
+  </si>
+  <si>
+    <t>327000so'm</t>
+  </si>
+  <si>
+    <t>Kvadrad profil</t>
+  </si>
+  <si>
+    <t>30mm 20mm</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>80m</t>
   </si>
 </sst>
 </file>
@@ -427,14 +676,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
@@ -474,6 +723,518 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/server/docs/HISOBOT.xlsx
+++ b/server/docs/HISOBOT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>Mahsulot Nomi</t>
   </si>
@@ -40,13 +40,10 @@
     <t>1 m Uchun Narx</t>
   </si>
   <si>
-    <t>Planka</t>
-  </si>
-  <si>
-    <t>20/40</t>
-  </si>
-  <si>
-    <t>Rossiya</t>
+    <t>Truba</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Yangi</t>
@@ -58,235 +55,217 @@
     <t/>
   </si>
   <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>1ta</t>
+  </si>
+  <si>
+    <t>8000so'm</t>
+  </si>
+  <si>
+    <t>Dvuxtavr</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B/U</t>
+  </si>
+  <si>
+    <t>O'rtasi: 6mm Chet:8mm</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>16000so'm</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>shovniy</t>
+  </si>
+  <si>
+    <t>Eski</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>7.7m</t>
+  </si>
+  <si>
+    <t>300000so'm</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>9.88m</t>
+  </si>
+  <si>
+    <t>20000so'm</t>
+  </si>
+  <si>
+    <t>Ugalok</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>raznapol</t>
+  </si>
+  <si>
+    <t>2.4m</t>
+  </si>
+  <si>
+    <t>7ta</t>
+  </si>
+  <si>
+    <t>16.8m</t>
+  </si>
+  <si>
+    <t>70000so'm</t>
+  </si>
+  <si>
+    <t>Prut</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>5ta</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>18000so'm</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>7.5m</t>
+  </si>
+  <si>
+    <t>4ta</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>8.14m</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>stal20</t>
+  </si>
+  <si>
+    <t>600mm 150mm</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>25000so'm</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>8ta</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>40-60</t>
+  </si>
+  <si>
+    <t>KB-2</t>
+  </si>
+  <si>
+    <t>O'rtasi: 40mm Chet:20mm</t>
+  </si>
+  <si>
+    <t>2.5m</t>
+  </si>
+  <si>
+    <t>2.7m</t>
+  </si>
+  <si>
+    <t>2ta</t>
+  </si>
+  <si>
+    <t>5.4m</t>
+  </si>
+  <si>
+    <t>2.85m</t>
+  </si>
+  <si>
+    <t>etss</t>
+  </si>
+  <si>
     <t>15m</t>
   </si>
   <si>
-    <t>2ta</t>
-  </si>
-  <si>
-    <t>30m</t>
-  </si>
-  <si>
-    <t>13000so'm</t>
-  </si>
-  <si>
-    <t>Truba</t>
-  </si>
-  <si>
-    <t>40/40</t>
-  </si>
-  <si>
-    <t>12mm</t>
-  </si>
-  <si>
-    <t>8.65m</t>
-  </si>
-  <si>
-    <t>17.3m</t>
-  </si>
-  <si>
-    <t>12555so'm</t>
-  </si>
-  <si>
-    <t>Shvellir</t>
-  </si>
-  <si>
-    <t>20/20</t>
-  </si>
-  <si>
-    <t>O'zbekiston</t>
-  </si>
-  <si>
-    <t>6.78m</t>
-  </si>
-  <si>
-    <t>4ta</t>
-  </si>
-  <si>
-    <t>27.12m</t>
-  </si>
-  <si>
-    <t>23000so'm</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>20mm 20mm</t>
-  </si>
-  <si>
-    <t>0m</t>
-  </si>
-  <si>
-    <t>3ta</t>
-  </si>
-  <si>
-    <t>17300so'm</t>
-  </si>
-  <si>
-    <t>Armatura</t>
-  </si>
-  <si>
-    <t>olcham</t>
-  </si>
-  <si>
-    <t>40-10</t>
-  </si>
-  <si>
-    <t>14mm</t>
-  </si>
-  <si>
-    <t>12m</t>
-  </si>
-  <si>
-    <t>1ta</t>
-  </si>
-  <si>
-    <t>19800so'm</t>
-  </si>
-  <si>
-    <t>Dvuxtavr</t>
-  </si>
-  <si>
-    <t>Latviya</t>
-  </si>
-  <si>
-    <t>O'rtasi: 14mm Chet:15mm</t>
-  </si>
-  <si>
-    <t>8.34m</t>
-  </si>
-  <si>
-    <t>25.02m</t>
-  </si>
-  <si>
-    <t>13500so'm</t>
-  </si>
-  <si>
-    <t>Kvadrat prut</t>
-  </si>
-  <si>
-    <t>30/30</t>
+    <t>Palasa</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <t>planka</t>
+  </si>
+  <si>
+    <t>5mm</t>
   </si>
   <si>
     <t>20mm 10mm</t>
   </si>
   <si>
-    <t>24000so'm</t>
-  </si>
-  <si>
-    <t>Ugalok</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Eski</t>
-  </si>
-  <si>
-    <t>23m</t>
-  </si>
-  <si>
-    <t>69m</t>
-  </si>
-  <si>
-    <t>12220so'm</t>
-  </si>
-  <si>
-    <t>Prut</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>36m</t>
-  </si>
-  <si>
-    <t>25000so'm</t>
-  </si>
-  <si>
-    <t>olchamlari</t>
-  </si>
-  <si>
-    <t>4.67m</t>
-  </si>
-  <si>
-    <t>18.68m</t>
-  </si>
-  <si>
-    <t>23333so'm</t>
-  </si>
-  <si>
-    <t>Palasa</t>
-  </si>
-  <si>
-    <t>50/50</t>
-  </si>
-  <si>
-    <t>yangi</t>
-  </si>
-  <si>
-    <t>20m</t>
-  </si>
-  <si>
-    <t>8ta</t>
-  </si>
-  <si>
-    <t>160m</t>
-  </si>
-  <si>
-    <t>20-0</t>
-  </si>
-  <si>
-    <t>SHI-1</t>
-  </si>
-  <si>
-    <t>40mm 50mm</t>
-  </si>
-  <si>
-    <t>3.5m</t>
-  </si>
-  <si>
-    <t>7m</t>
-  </si>
-  <si>
-    <t>1.34m</t>
-  </si>
-  <si>
-    <t>14500so'm</t>
-  </si>
-  <si>
-    <t>qwe=qwe</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>O'rtasi: 123mm Chet:123mm</t>
-  </si>
-  <si>
-    <t>123m</t>
-  </si>
-  <si>
-    <t>10ta</t>
-  </si>
-  <si>
-    <t>1230m</t>
-  </si>
-  <si>
-    <t>327000so'm</t>
-  </si>
-  <si>
-    <t>Kvadrad profil</t>
-  </si>
-  <si>
-    <t>30mm 20mm</t>
-  </si>
-  <si>
-    <t>40m</t>
-  </si>
-  <si>
-    <t>80m</t>
+    <t>0.2m</t>
+  </si>
+  <si>
+    <t>15000so'm</t>
+  </si>
+  <si>
+    <t>50/40</t>
+  </si>
+  <si>
+    <t>SH1</t>
+  </si>
+  <si>
+    <t>O'rtasi: 20mm Chet:40mm</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>12000so'm</t>
+  </si>
+  <si>
+    <t>1.46m</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>O'rtasi: 50mm Chet:50mm</t>
+  </si>
+  <si>
+    <t>7000so'm</t>
   </si>
 </sst>
 </file>
@@ -676,14 +655,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
@@ -731,508 +710,636 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/HISOBOT.xlsx
+++ b/server/docs/HISOBOT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="91">
   <si>
     <t>Mahsulot Nomi</t>
   </si>
@@ -43,28 +43,235 @@
     <t>Truba</t>
   </si>
   <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>shovniy</t>
+  </si>
+  <si>
+    <t>Yangi</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9.88m</t>
+  </si>
+  <si>
+    <t>1ta</t>
+  </si>
+  <si>
+    <t>20000so'm</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>stal20</t>
+  </si>
+  <si>
+    <t>Eski</t>
+  </si>
+  <si>
+    <t>600mm 150mm</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>25000so'm</t>
+  </si>
+  <si>
+    <t>Prut</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>Yangi</t>
-  </si>
-  <si>
     <t>20mm</t>
   </si>
   <si>
-    <t/>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>5ta</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>18000so'm</t>
+  </si>
+  <si>
+    <t>Ugalok</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>raznapol</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>8ta</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>70000so'm</t>
+  </si>
+  <si>
+    <t>Dvuxtavr</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>O'rtasi: 123mm Chet:123mm</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>17000so'm</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>16000so'm</t>
+  </si>
+  <si>
+    <t>2.7m</t>
+  </si>
+  <si>
+    <t>2ta</t>
+  </si>
+  <si>
+    <t>5.4m</t>
+  </si>
+  <si>
+    <t>7.5m</t>
+  </si>
+  <si>
+    <t>4ta</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>8000so'm</t>
+  </si>
+  <si>
+    <t>50/40</t>
+  </si>
+  <si>
+    <t>SH1</t>
+  </si>
+  <si>
+    <t>O'rtasi: 20mm Chet:40mm</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>23ta</t>
+  </si>
+  <si>
+    <t>230m</t>
+  </si>
+  <si>
+    <t>12000so'm</t>
+  </si>
+  <si>
+    <t>Palasa</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <t>planka</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>20mm 10mm</t>
+  </si>
+  <si>
+    <t>0.2m</t>
+  </si>
+  <si>
+    <t>15000so'm</t>
+  </si>
+  <si>
+    <t>40-60</t>
+  </si>
+  <si>
+    <t>KB-2</t>
+  </si>
+  <si>
+    <t>O'rtasi: 40mm Chet:20mm</t>
+  </si>
+  <si>
+    <t>2.5m</t>
+  </si>
+  <si>
+    <t>2.4m</t>
+  </si>
+  <si>
+    <t>7ta</t>
+  </si>
+  <si>
+    <t>16.8m</t>
+  </si>
+  <si>
+    <t>8m</t>
   </si>
   <si>
     <t>7m</t>
   </si>
   <si>
-    <t>1ta</t>
-  </si>
-  <si>
-    <t>8000so'm</t>
-  </si>
-  <si>
-    <t>Dvuxtavr</t>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>7.7m</t>
+  </si>
+  <si>
+    <t>300000so'm</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>O'rtasi: 50mm Chet:50mm</t>
+  </si>
+  <si>
+    <t>7000so'm</t>
+  </si>
+  <si>
+    <t>2.85m</t>
+  </si>
+  <si>
+    <t>1.46m</t>
+  </si>
+  <si>
+    <t>8.14m</t>
+  </si>
+  <si>
+    <t>etss</t>
+  </si>
+  <si>
+    <t>15m</t>
   </si>
   <si>
     <t>30</t>
@@ -77,195 +284,6 @@
   </si>
   <si>
     <t>O'rtasi: 6mm Chet:8mm</t>
-  </si>
-  <si>
-    <t>10m</t>
-  </si>
-  <si>
-    <t>16000so'm</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>shovniy</t>
-  </si>
-  <si>
-    <t>Eski</t>
-  </si>
-  <si>
-    <t>6mm</t>
-  </si>
-  <si>
-    <t>7.7m</t>
-  </si>
-  <si>
-    <t>300000so'm</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>9.88m</t>
-  </si>
-  <si>
-    <t>20000so'm</t>
-  </si>
-  <si>
-    <t>Ugalok</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>raznapol</t>
-  </si>
-  <si>
-    <t>2.4m</t>
-  </si>
-  <si>
-    <t>7ta</t>
-  </si>
-  <si>
-    <t>16.8m</t>
-  </si>
-  <si>
-    <t>70000so'm</t>
-  </si>
-  <si>
-    <t>Prut</t>
-  </si>
-  <si>
-    <t>20m</t>
-  </si>
-  <si>
-    <t>5ta</t>
-  </si>
-  <si>
-    <t>100m</t>
-  </si>
-  <si>
-    <t>18000so'm</t>
-  </si>
-  <si>
-    <t>8m</t>
-  </si>
-  <si>
-    <t>7.5m</t>
-  </si>
-  <si>
-    <t>4ta</t>
-  </si>
-  <si>
-    <t>30m</t>
-  </si>
-  <si>
-    <t>8.14m</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>stal20</t>
-  </si>
-  <si>
-    <t>600mm 150mm</t>
-  </si>
-  <si>
-    <t>0m</t>
-  </si>
-  <si>
-    <t>25000so'm</t>
-  </si>
-  <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>8ta</t>
-  </si>
-  <si>
-    <t>40m</t>
-  </si>
-  <si>
-    <t>40-60</t>
-  </si>
-  <si>
-    <t>KB-2</t>
-  </si>
-  <si>
-    <t>O'rtasi: 40mm Chet:20mm</t>
-  </si>
-  <si>
-    <t>2.5m</t>
-  </si>
-  <si>
-    <t>2.7m</t>
-  </si>
-  <si>
-    <t>2ta</t>
-  </si>
-  <si>
-    <t>5.4m</t>
-  </si>
-  <si>
-    <t>2.85m</t>
-  </si>
-  <si>
-    <t>etss</t>
-  </si>
-  <si>
-    <t>15m</t>
-  </si>
-  <si>
-    <t>Palasa</t>
-  </si>
-  <si>
-    <t>20/10</t>
-  </si>
-  <si>
-    <t>planka</t>
-  </si>
-  <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>20mm 10mm</t>
-  </si>
-  <si>
-    <t>0.2m</t>
-  </si>
-  <si>
-    <t>15000so'm</t>
-  </si>
-  <si>
-    <t>50/40</t>
-  </si>
-  <si>
-    <t>SH1</t>
-  </si>
-  <si>
-    <t>O'rtasi: 20mm Chet:40mm</t>
-  </si>
-  <si>
-    <t>50m</t>
-  </si>
-  <si>
-    <t>12000so'm</t>
-  </si>
-  <si>
-    <t>1.46m</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>O'rtasi: 50mm Chet:50mm</t>
-  </si>
-  <si>
-    <t>7000so'm</t>
   </si>
 </sst>
 </file>
@@ -655,14 +673,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
@@ -710,220 +728,220 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -931,223 +949,223 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1158,92 +1176,92 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1251,95 +1269,159 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/HISOBOT.xlsx
+++ b/server/docs/HISOBOT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>Mahsulot Nomi</t>
   </si>
@@ -40,82 +40,178 @@
     <t>1 m Uchun Narx</t>
   </si>
   <si>
+    <t>Ugalok</t>
+  </si>
+  <si>
+    <t>qwertyu</t>
+  </si>
+  <si>
+    <t>Yangi</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8.78m</t>
+  </si>
+  <si>
+    <t>2ta</t>
+  </si>
+  <si>
+    <t>17.56m</t>
+  </si>
+  <si>
+    <t>20000so'm</t>
+  </si>
+  <si>
+    <t>Shvellir</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Eski</t>
+  </si>
+  <si>
+    <t>23mm</t>
+  </si>
+  <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>1ta</t>
+  </si>
+  <si>
+    <t>34999so'm</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>13m</t>
+  </si>
+  <si>
+    <t>8ta</t>
+  </si>
+  <si>
+    <t>104m</t>
+  </si>
+  <si>
+    <t>16000so'm</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>eski</t>
+  </si>
+  <si>
+    <t>B/U</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>600mm 150mm</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>750000so'm</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>16300so'm</t>
+  </si>
+  <si>
+    <t>Kvadrat prut</t>
+  </si>
+  <si>
+    <t>14mm</t>
+  </si>
+  <si>
+    <t>18.3mm 14.6mm</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>7ta</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>25000so'm</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>28m</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>planka</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t>200mm 150mm</t>
+  </si>
+  <si>
+    <t>5ta</t>
+  </si>
+  <si>
     <t>Kvadrad profil</t>
   </si>
   <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>Eski</t>
-  </si>
-  <si>
-    <t>14mm</t>
-  </si>
-  <si>
-    <t>18.3mm 14.6mm</t>
-  </si>
-  <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>7ta</t>
-  </si>
-  <si>
-    <t>35m</t>
-  </si>
-  <si>
-    <t>25000so'm</t>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t>60mm 50mm</t>
+  </si>
+  <si>
+    <t>14m</t>
+  </si>
+  <si>
+    <t>28000so'm</t>
   </si>
   <si>
     <t>Palasa</t>
   </si>
   <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>planka</t>
-  </si>
-  <si>
-    <t>20mm</t>
-  </si>
-  <si>
-    <t>200mm 150mm</t>
-  </si>
-  <si>
-    <t>0m</t>
-  </si>
-  <si>
-    <t>5ta</t>
-  </si>
-  <si>
-    <t>20000so'm</t>
-  </si>
-  <si>
-    <t>Yangi</t>
-  </si>
-  <si>
-    <t>16mm</t>
-  </si>
-  <si>
-    <t>60mm 50mm</t>
-  </si>
-  <si>
-    <t>7m</t>
-  </si>
-  <si>
-    <t>2ta</t>
-  </si>
-  <si>
-    <t>14m</t>
-  </si>
-  <si>
-    <t>28000so'm</t>
-  </si>
-  <si>
-    <t>Kvadrat prut</t>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>Truba</t>
+  </si>
+  <si>
+    <t>219mm</t>
+  </si>
+  <si>
+    <t>9m</t>
+  </si>
+  <si>
+    <t>3ta</t>
+  </si>
+  <si>
+    <t>27m</t>
+  </si>
+  <si>
+    <t>250mm 150mm</t>
   </si>
 </sst>
 </file>
@@ -505,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
@@ -589,106 +685,106 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -700,16 +796,304 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/HISOBOT.xlsx
+++ b/server/docs/HISOBOT.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="MAHSULOTLAR" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="SKLAD" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>Mahsulot Nomi</t>
   </si>
@@ -40,7 +40,34 @@
     <t>1 m Uchun Narx</t>
   </si>
   <si>
-    <t>Dvuxtavr</t>
+    <t>List</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>eski</t>
+  </si>
+  <si>
+    <t>B/U</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>600mm 150mm</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>1ta</t>
+  </si>
+  <si>
+    <t>750000so'm</t>
+  </si>
+  <si>
+    <t>Kvadrad profil</t>
   </si>
   <si>
     <t>qwe</t>
@@ -49,19 +76,133 @@
     <t>Eski</t>
   </si>
   <si>
-    <t>O'rtasi: 15mm Chet:20mm</t>
+    <t>14mm</t>
+  </si>
+  <si>
+    <t>18.3mm 14.6mm</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>7ta</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>25000so'm</t>
+  </si>
+  <si>
+    <t>Truba</t>
+  </si>
+  <si>
+    <t>qwertyu</t>
+  </si>
+  <si>
+    <t>Yangi</t>
+  </si>
+  <si>
+    <t>219mm</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>9.86m</t>
-  </si>
-  <si>
-    <t>1ta</t>
-  </si>
-  <si>
-    <t>18000so'm</t>
+    <t>9m</t>
+  </si>
+  <si>
+    <t>3ta</t>
+  </si>
+  <si>
+    <t>27m</t>
+  </si>
+  <si>
+    <t>20000so'm</t>
+  </si>
+  <si>
+    <t>250mm 150mm</t>
+  </si>
+  <si>
+    <t>Shvellir</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>16000so'm</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>planka</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t>200mm 150mm</t>
+  </si>
+  <si>
+    <t>2ta</t>
+  </si>
+  <si>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t>60mm 50mm</t>
+  </si>
+  <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>14m</t>
+  </si>
+  <si>
+    <t>28000so'm</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>16300so'm</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>5ta</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>Kvadrat prut</t>
+  </si>
+  <si>
+    <t>Palasa</t>
+  </si>
+  <si>
+    <t>Ugalok</t>
+  </si>
+  <si>
+    <t>8.78m</t>
+  </si>
+  <si>
+    <t>17.56m</t>
+  </si>
+  <si>
+    <t>13m</t>
+  </si>
+  <si>
+    <t>8ta</t>
+  </si>
+  <si>
+    <t>104m</t>
   </si>
 </sst>
 </file>
@@ -451,14 +592,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
@@ -506,28 +647,412 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
